--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Not Applicable</t>
   </si>
   <si>
-    <t>1.validate the size of the logo-(ER1). 2.Validate the aligment of the logo-(ER2). 3.Validate the colors in the logo-(ER3)</t>
-  </si>
-  <si>
     <t>1.logo size must match. 2.Logo align at right place.   3. Colors must match</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>To validate the sign in text properties</t>
   </si>
   <si>
-    <t>1.Texr font-size must match. 2.Text align at right place.   3. Colors must match.            4. style of the text must match</t>
-  </si>
-  <si>
     <t>TC_003</t>
   </si>
   <si>
@@ -95,17 +89,98 @@
     <t>To validate the username lable text properties</t>
   </si>
   <si>
-    <t>1.validate the font size of usernamelable text-(ER1).                                              2.Validate the aligment of username lable text-(ER2).                                                             3.Validate the colors  the text-(ER3).           4. Validate the style of the text-(ER4)</t>
-  </si>
-  <si>
-    <t>1.validate the font size of the text-(ER1). 2.Validate the aligment of the sign in text-(ER2).                                                             3.Validate the colors of sign in text-(ER3).           4. Validate the style of the text-(ER4)</t>
+    <t>1.Text font-size must match. 2.Text align at right place.   3. Colors must match.            4. style of the text must match</t>
+  </si>
+  <si>
+    <t>1.Label text font-size must match.                                          2. lable text align at right place.                                   3.Label text Colors must match.                                 4.style of the text must match</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>1.Check the size of the logo-(ER1).    2.Check the aligment of the logo-(ER2). 3.Check the colors in the logo-(ER3)</t>
+  </si>
+  <si>
+    <t>1.Check the font size of the text-(ER1). 2.check the aligment of the sign in text-(ER2).                                                             3.Check the colors of sign in text-(ER3).           4. Check the style of the text-(ER4)</t>
+  </si>
+  <si>
+    <t>1.verify the font size of username lable text-(ER1).                                                   2.Verify the aligment of username lable text-(ER2).                                                             3.Verify the colors  the text-(ER3).           4.Verify the style of the text-(ER4)</t>
+  </si>
+  <si>
+    <t>1.Enter valid username-.                                              2.Click on next button-(ER1).                                                             3.Enter valid password.                             4.Click on login-(ER2)</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>To validate with valid username and password</t>
+  </si>
+  <si>
+    <t>To validate with invalid username and valid password</t>
+  </si>
+  <si>
+    <t>Ajc@yahoo.com        23457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Password page open.                                          2. User should be able to login and taken to  inbox page.                                   </t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>To validate with valid username and invalid password</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>To validate with invalid username and invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter invalid username-.                                              2.Click on next button-(ER1, 2).                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Below warning message should occur "mail address does not exist".              2.User should not be taken to password login page.                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter valid username.                                              2.Click on next button-(ER1).                          3.Enter invalid password.                             4.Click on login button(ER2, 3)                                                           </t>
+  </si>
+  <si>
+    <t>1.User should be taken to pssword page .                                          2. Below warning message should occur "password is incorrect".                        3.Inbox account page should not open</t>
+  </si>
+  <si>
+    <t>Abc@yahoo.com         23456</t>
+  </si>
+  <si>
+    <t>Abc@yahoo.com        2345^b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter invalid username.                                              2.Click on next button-(ER1, 2).                                                                                     </t>
+  </si>
+  <si>
+    <t>Ajc@yahoo.com        2345^b</t>
+  </si>
+  <si>
+    <t>1. Below warning message should occur "mail address does not exist".                        2.User should not be taken to password page</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>To validate username input field length</t>
+  </si>
+  <si>
+    <t>1. Below warning message should occur "mail address is empty".                           2.User should not be taken to password page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Leave the input field blank                           2. Click on next button(ER1,2)                                                </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +195,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -140,10 +224,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,8 +239,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +536,7 @@
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="41.42578125" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
@@ -490,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -501,63 +590,187 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>